--- a/bin/curva_zero_nss.xlsx
+++ b/bin/curva_zero_nss.xlsx
@@ -421,13 +421,13 @@
         <v>1.005479452054794</v>
       </c>
       <c r="C2">
-        <v>0.1376726532632786</v>
+        <v>-0.1247936017918637</v>
       </c>
       <c r="D2">
-        <v>0.1475998257234183</v>
+        <v>-0.1173209328374507</v>
       </c>
       <c r="E2">
-        <v>0.8707267911384797</v>
+        <v>1.133689549950982</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -438,13 +438,13 @@
         <v>2.005479452054795</v>
       </c>
       <c r="C3">
-        <v>0.08300500187775615</v>
+        <v>-0.05747362662533327</v>
       </c>
       <c r="D3">
-        <v>0.08654724331113339</v>
+        <v>-0.05585320960488438</v>
       </c>
       <c r="E3">
-        <v>0.8466525968380066</v>
+        <v>1.122167605805073</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -455,13 +455,13 @@
         <v>3.005479452054795</v>
       </c>
       <c r="C4">
-        <v>0.04123864712251093</v>
+        <v>-0.01352870282039915</v>
       </c>
       <c r="D4">
-        <v>0.04210077022292458</v>
+        <v>-0.01343760121200688</v>
       </c>
       <c r="E4">
-        <v>0.8834311609496333</v>
+        <v>1.041498184272121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -472,13 +472,13 @@
         <v>4.008219178082192</v>
       </c>
       <c r="C5">
-        <v>0.009988201325115242</v>
+        <v>0.01472716171344046</v>
       </c>
       <c r="D5">
-        <v>0.01003824990093305</v>
+        <v>0.01483614068594807</v>
       </c>
       <c r="E5">
-        <v>0.9607559080842976</v>
+        <v>0.9426787787057903</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -489,13 +489,13 @@
         <v>5.008219178082192</v>
       </c>
       <c r="C6">
-        <v>-0.01250824750373021</v>
+        <v>0.03251454431035597</v>
       </c>
       <c r="D6">
-        <v>-0.01243034452412395</v>
+        <v>0.03304891801878562</v>
       </c>
       <c r="E6">
-        <v>1.064647805100776</v>
+        <v>0.8497271641458966</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -506,13 +506,13 @@
         <v>6.008219178082192</v>
       </c>
       <c r="C7">
-        <v>-0.02795530728524611</v>
+        <v>0.04366675780180468</v>
       </c>
       <c r="D7">
-        <v>-0.02756817355168806</v>
+        <v>0.04463418068781544</v>
       </c>
       <c r="E7">
-        <v>1.182891202558002</v>
+        <v>0.7692344713919996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -523,13 +523,13 @@
         <v>7.008219178082192</v>
       </c>
       <c r="C8">
-        <v>-0.03768848979349676</v>
+        <v>0.0507601606444209</v>
       </c>
       <c r="D8">
-        <v>-0.03698711748676731</v>
+        <v>0.05207053510253923</v>
       </c>
       <c r="E8">
-        <v>1.302296438178191</v>
+        <v>0.7006559359705835</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -540,13 +540,13 @@
         <v>8.010958904109589</v>
       </c>
       <c r="C9">
-        <v>-0.04282543966371304</v>
+        <v>0.05555547754124968</v>
       </c>
       <c r="D9">
-        <v>-0.04192138200332896</v>
+        <v>0.05712766228915234</v>
       </c>
       <c r="E9">
-        <v>1.409271405566458</v>
+        <v>0.6407905391364249</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -557,13 +557,13 @@
         <v>9.010958904109589</v>
       </c>
       <c r="C10">
-        <v>-0.04425929199994771</v>
+        <v>0.05919305422074789</v>
       </c>
       <c r="D10">
-        <v>-0.04329414086609706</v>
+        <v>0.0609800476464315</v>
       </c>
       <c r="E10">
-        <v>1.490063388003227</v>
+        <v>0.5866152186233604</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -574,13 +574,13 @@
         <v>10.01095890410959</v>
       </c>
       <c r="C11">
-        <v>-0.04277009204377914</v>
+        <v>0.06244109601248987</v>
       </c>
       <c r="D11">
-        <v>-0.04186835316461679</v>
+        <v>0.06443175779623789</v>
       </c>
       <c r="E11">
-        <v>1.534446352819266</v>
+        <v>0.5352104493786625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -591,13 +591,13 @@
         <v>11.01095890410959</v>
       </c>
       <c r="C12">
-        <v>-0.03898529821707161</v>
+        <v>0.06576650072056134</v>
       </c>
       <c r="D12">
-        <v>-0.03823515129953814</v>
+        <v>0.06797731611587388</v>
       </c>
       <c r="E12">
-        <v>1.536128847859705</v>
+        <v>0.4847353356414915</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -608,13 +608,13 @@
         <v>12.01369863013699</v>
       </c>
       <c r="C13">
-        <v>-0.03340422476879327</v>
+        <v>0.06945045132943434</v>
       </c>
       <c r="D13">
-        <v>-0.03285246442539613</v>
+        <v>0.07191894773011653</v>
       </c>
       <c r="E13">
-        <v>1.493777713274961</v>
+        <v>0.434153642740725</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -625,13 +625,13 @@
         <v>13.01369863013699</v>
       </c>
       <c r="C14">
-        <v>-0.02648229922467942</v>
+        <v>0.07361058540275467</v>
       </c>
       <c r="D14">
-        <v>-0.02613471814648194</v>
+        <v>0.07638756284264914</v>
       </c>
       <c r="E14">
-        <v>1.411471336158366</v>
+        <v>0.3836801660274182</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -642,13 +642,13 @@
         <v>14.01369863013699</v>
       </c>
       <c r="C15">
-        <v>-0.01855325422024364</v>
+        <v>0.0783057852278094</v>
       </c>
       <c r="D15">
-        <v>-0.01838220209057806</v>
+        <v>0.08145330055868061</v>
       </c>
       <c r="E15">
-        <v>1.296929714772175</v>
+        <v>0.333753135291905</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -659,13 +659,13 @@
         <v>15.01369863013699</v>
       </c>
       <c r="C16">
-        <v>-0.009899678761442196</v>
+        <v>0.08352897345613358</v>
       </c>
       <c r="D16">
-        <v>-0.009850838243005255</v>
+        <v>0.08711671236496343</v>
       </c>
       <c r="E16">
-        <v>1.160244540247989</v>
+        <v>0.2853385712891812</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,13 +676,13 @@
         <v>16.01643835616438</v>
       </c>
       <c r="C17">
-        <v>-0.000725251469845721</v>
+        <v>0.08925471983910616</v>
       </c>
       <c r="D17">
-        <v>-0.0007249885385660626</v>
+        <v>0.0933591211189877</v>
       </c>
       <c r="E17">
-        <v>1.011683672537935</v>
+        <v>0.2394183788589455</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,13 +693,13 @@
         <v>17.01643835616438</v>
       </c>
       <c r="C18">
-        <v>0.008734551722919801</v>
+        <v>0.095390273799981</v>
       </c>
       <c r="D18">
-        <v>0.008772809226076372</v>
+        <v>0.1000881069235924</v>
       </c>
       <c r="E18">
-        <v>0.8618871262121538</v>
+        <v>0.1972659000482898</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,13 +710,13 @@
         <v>18.01643835616438</v>
       </c>
       <c r="C19">
-        <v>0.01835601022816315</v>
+        <v>0.1018798178021698</v>
       </c>
       <c r="D19">
-        <v>0.01852551735364205</v>
+        <v>0.1072503919455308</v>
       </c>
       <c r="E19">
-        <v>0.7184135313734201</v>
+        <v>0.1595318871711663</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,13 +727,13 @@
         <v>19.01643835616438</v>
       </c>
       <c r="C20">
-        <v>0.02802123143713887</v>
+        <v>0.1086497289073152</v>
       </c>
       <c r="D20">
-        <v>0.02841751897154143</v>
+        <v>0.1147718096080304</v>
       </c>
       <c r="E20">
-        <v>0.5869216048496569</v>
+        <v>0.1266749563528991</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,13 +744,13 @@
         <v>20.01917808219178</v>
       </c>
       <c r="C21">
-        <v>0.03766353459329041</v>
+        <v>0.1156471901842638</v>
       </c>
       <c r="D21">
-        <v>0.03838179454201796</v>
+        <v>0.1225997380506403</v>
       </c>
       <c r="E21">
-        <v>0.4704841508763656</v>
+        <v>0.09875021529469108</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -761,13 +761,13 @@
         <v>21.01917808219178</v>
       </c>
       <c r="C22">
-        <v>0.04715777479714157</v>
+        <v>0.1227657241077919</v>
       </c>
       <c r="D22">
-        <v>0.04828738936309507</v>
+        <v>0.1306195130227694</v>
       </c>
       <c r="E22">
-        <v>0.3711245099212991</v>
+        <v>0.07574107847692944</v>
       </c>
     </row>
   </sheetData>
